--- a/Tweets/20210208/vox.xlsx
+++ b/Tweets/20210208/vox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monts\OneDrive\Escritorio\TFM\Tweets\20210208\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B43E73F-308D-4D52-8B05-8CB70EB0E739}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C189A86-2693-4B00-B27F-4EB73F2BDAA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A45D7154-D9E3-4A7F-8115-608B1CA2357E}"/>
   </bookViews>
@@ -916,7 +916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -940,7 +942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2201623465</v>
       </c>
@@ -954,7 +956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2201623465</v>
       </c>
@@ -968,7 +970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2201623465</v>
       </c>
@@ -982,7 +984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2201623465</v>
       </c>
@@ -996,7 +998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2201623465</v>
       </c>
@@ -1024,7 +1026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2201623465</v>
       </c>
@@ -1038,7 +1040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2201623465</v>
       </c>
@@ -1052,7 +1054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2201623465</v>
       </c>
@@ -1066,7 +1068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2201623465</v>
       </c>
@@ -1080,7 +1082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2201623465</v>
       </c>
@@ -1094,7 +1096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2201623465</v>
       </c>
@@ -1108,7 +1110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2201623465</v>
       </c>
@@ -1136,7 +1138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2201623465</v>
       </c>
@@ -1150,7 +1152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2201623465</v>
       </c>
@@ -1164,7 +1166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2201623465</v>
       </c>
@@ -1178,7 +1180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2201623465</v>
       </c>
@@ -1192,7 +1194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2201623465</v>
       </c>
@@ -1206,7 +1208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2201623465</v>
       </c>
@@ -1220,7 +1222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2201623465</v>
       </c>
@@ -1234,7 +1236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2201623465</v>
       </c>
@@ -1248,7 +1250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2201623465</v>
       </c>
@@ -1262,7 +1264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2201623465</v>
       </c>
@@ -1276,7 +1278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2201623465</v>
       </c>
@@ -1290,7 +1292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2201623465</v>
       </c>
@@ -1304,7 +1306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2201623465</v>
       </c>
@@ -1332,7 +1334,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2201623465</v>
       </c>
@@ -1360,7 +1362,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2201623465</v>
       </c>
@@ -1374,7 +1376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2201623465</v>
       </c>
@@ -1388,7 +1390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2201623465</v>
       </c>
@@ -1402,7 +1404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2201623465</v>
       </c>
@@ -1416,7 +1418,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2201623465</v>
       </c>
@@ -1430,7 +1432,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2201623465</v>
       </c>
@@ -1444,7 +1446,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2201623465</v>
       </c>
@@ -1458,7 +1460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2201623465</v>
       </c>
@@ -1472,7 +1474,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2201623465</v>
       </c>
@@ -1486,7 +1488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2201623465</v>
       </c>
@@ -1514,7 +1516,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2201623465</v>
       </c>
@@ -1528,7 +1530,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2201623465</v>
       </c>
@@ -1542,7 +1544,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2201623465</v>
       </c>
@@ -1556,7 +1558,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2201623465</v>
       </c>
@@ -1570,7 +1572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2201623465</v>
       </c>
@@ -1598,7 +1600,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2201623465</v>
       </c>
@@ -1626,7 +1628,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2201623465</v>
       </c>
@@ -1654,7 +1656,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2201623465</v>
       </c>
@@ -1696,7 +1698,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2201623465</v>
       </c>
@@ -1710,7 +1712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2201623465</v>
       </c>
@@ -1724,7 +1726,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2201623465</v>
       </c>
@@ -1738,7 +1740,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2201623465</v>
       </c>
@@ -1752,7 +1754,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2201623465</v>
       </c>
@@ -1766,7 +1768,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2201623465</v>
       </c>
@@ -1780,7 +1782,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2201623465</v>
       </c>
@@ -1794,7 +1796,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2201623465</v>
       </c>
@@ -1836,7 +1838,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2201623465</v>
       </c>
@@ -1864,7 +1866,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2201623465</v>
       </c>
@@ -1878,7 +1880,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2201623465</v>
       </c>
@@ -1892,7 +1894,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2201623465</v>
       </c>
@@ -1906,7 +1908,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2201623465</v>
       </c>
@@ -1920,7 +1922,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2201623465</v>
       </c>
@@ -1934,7 +1936,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2201623465</v>
       </c>
@@ -1948,7 +1950,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2201623465</v>
       </c>
@@ -1962,7 +1964,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2201623465</v>
       </c>
@@ -1976,7 +1978,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2201623465</v>
       </c>
@@ -1990,7 +1992,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2201623465</v>
       </c>
@@ -2004,7 +2006,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2201623465</v>
       </c>
@@ -2018,7 +2020,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2201623465</v>
       </c>
@@ -2032,7 +2034,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2201623465</v>
       </c>
@@ -2060,7 +2062,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2201623465</v>
       </c>
@@ -2074,7 +2076,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2201623465</v>
       </c>
@@ -2088,7 +2090,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2201623465</v>
       </c>
@@ -2130,7 +2132,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2201623465</v>
       </c>
@@ -2158,7 +2160,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2201623465</v>
       </c>
@@ -2186,7 +2188,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2201623465</v>
       </c>
@@ -2200,7 +2202,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2201623465</v>
       </c>
@@ -2228,7 +2230,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2201623465</v>
       </c>
@@ -2242,7 +2244,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2201623465</v>
       </c>
@@ -2256,7 +2258,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2201623465</v>
       </c>
@@ -2270,7 +2272,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2201623465</v>
       </c>
@@ -2303,7 +2305,7 @@
         <v>2201623465</v>
       </c>
       <c r="B99">
-        <v>1.3583833688036557E+18</v>
+        <v>1.35838336880366E+18</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>4</v>
